--- a/Sprint Backlog.xlsx
+++ b/Sprint Backlog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\OneDrive\Ambiente de Trabalho\UpSkill\GitHub\upskill_java1_labprg_grupo3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716EE6D6-710A-4DEA-99AE-034CEE83148A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="1575" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="1575" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="52">
   <si>
     <t>Tarefa</t>
   </si>
@@ -175,12 +174,15 @@
   </si>
   <si>
     <t>Revisão Final UI+Controllers</t>
+  </si>
+  <si>
+    <t>Pedro/Vitor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -607,11 +609,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:O235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -996,7 +998,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="40.5" customHeight="1">
@@ -1115,7 +1117,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="40.5" customHeight="1">
